--- a/fuentes/contenidos/grado06/guion07/SolicitudGrafica_CN_06_07_CO_REC120.xlsx
+++ b/fuentes/contenidos/grado06/guion07/SolicitudGrafica_CN_06_07_CO_REC120.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\German\Documents\GitHub\CienciasNaturales\fuentes\contenidos\grado06\guion07\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12240" windowHeight="8955" tabRatio="500"/>
   </bookViews>
@@ -11,7 +16,7 @@
     <sheet name="Ayuda" sheetId="2" r:id="rId2"/>
     <sheet name="Definición técnica de imagenes" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -529,11 +534,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1641,6 +1646,494 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropStyle="combo" dx="33" fmlaLink="$H$20" fmlaRange="$H$4:$H$7" noThreeD="1" sel="4" val="0"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropLines="9" dropStyle="combo" dx="33" fmlaLink="$I$20" fmlaRange="$I$6:$I$14" noThreeD="1" sel="5" val="0"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp3.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropLines="16" dropStyle="combo" dx="33" fmlaLink="$J$20" fmlaRange="$J$4:$J$19" noThreeD="1" sel="4" val="0"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropLines="16" dropStyle="combo" dx="33" fmlaLink="$K$44" fmlaRange="$K$4:$K$43" noThreeD="1" val="0"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp5.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropStyle="combo" dx="33" fmlaLink="$H$20" fmlaRange="$H$4:$H$7" noThreeD="1" sel="4" val="0"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp6.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropLines="9" dropStyle="combo" dx="33" fmlaLink="$I$20" fmlaRange="$I$6:$I$14" noThreeD="1" sel="5" val="0"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp7.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropLines="16" dropStyle="combo" dx="33" fmlaLink="$J$20" fmlaRange="$J$4:$J$19" noThreeD="1" sel="4" val="0"/>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>2623457</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>304800</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>13</xdr:col>
+          <xdr:colOff>806904</xdr:colOff>
+          <xdr:row>21</xdr:row>
+          <xdr:rowOff>126546</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2054" name="Object 6" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2054"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd type="none" w="med" len="med"/>
+            </a:ln>
+            <a:effectLst/>
+            <a:extLst>
+              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+                <a14:hiddenEffects>
+                  <a:effectLst>
+                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="808080"/>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a14:hiddenEffects>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>962025</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>2028825</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>1419225</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1030" name="Drop Down 6" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1030"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>2019300</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>962025</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>1657350</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>1419225</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1031" name="Drop Down 7" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1031"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>9525</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>962025</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>1666875</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>1419225</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1032" name="Drop Down 8" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1032"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>9525</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>962025</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>1666875</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>1419225</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1035" name="Drop Down 11" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1035"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>38100</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>2066925</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>466725</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1026" name="Drop Down 2" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1026"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>2085975</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>1724025</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>466725</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1028" name="Drop Down 4" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1028"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>28575</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>9525</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>466725</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1029" name="Drop Down 5" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1029"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1964,15 +2457,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:P107"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="140" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.625" style="2" customWidth="1"/>
     <col min="2" max="2" width="21" style="2" customWidth="1"/>
@@ -1990,7 +2483,7 @@
     <col min="14" max="16384" width="10.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="16.5" thickBot="1">
+    <row r="1" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2002,7 +2495,7 @@
       <c r="J1" s="16"/>
       <c r="K1" s="16"/>
     </row>
-    <row r="2" spans="1:16" ht="15.75">
+    <row r="2" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="3" t="s">
         <v>129</v>
@@ -2019,7 +2512,7 @@
       <c r="I2" s="49"/>
       <c r="J2" s="16"/>
     </row>
-    <row r="3" spans="1:16" ht="15.75">
+    <row r="3" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="4" t="s">
         <v>8</v>
@@ -2036,7 +2529,7 @@
       <c r="I3" s="49"/>
       <c r="J3" s="16"/>
     </row>
-    <row r="4" spans="1:16" ht="16.5">
+    <row r="4" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="4" t="s">
         <v>54</v>
@@ -2057,7 +2550,7 @@
       <c r="J4" s="16"/>
       <c r="K4" s="16"/>
     </row>
-    <row r="5" spans="1:16" ht="16.5" thickBot="1">
+    <row r="5" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="6" t="s">
         <v>1</v>
@@ -2079,7 +2572,7 @@
       <c r="J5" s="16"/>
       <c r="K5" s="16"/>
     </row>
-    <row r="6" spans="1:16" ht="16.5" thickBot="1">
+    <row r="6" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -2092,7 +2585,7 @@
       <c r="J6" s="16"/>
       <c r="K6" s="16"/>
     </row>
-    <row r="7" spans="1:16" ht="15" customHeight="1">
+    <row r="7" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="33" t="s">
         <v>40</v>
@@ -2110,7 +2603,7 @@
       <c r="J7" s="16"/>
       <c r="K7" s="16"/>
     </row>
-    <row r="8" spans="1:16" s="9" customFormat="1" ht="16.5" thickBot="1">
+    <row r="8" spans="1:16" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -2130,7 +2623,7 @@
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
     </row>
-    <row r="9" spans="1:16" ht="26.25" thickBot="1">
+    <row r="9" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="29" t="s">
         <v>2</v>
       </c>
@@ -2165,7 +2658,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:16" s="12" customFormat="1" ht="93" customHeight="1">
+    <row r="10" spans="1:16" s="12" customFormat="1" ht="93" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>151</v>
       </c>
@@ -2201,7 +2694,7 @@
       </c>
       <c r="K10" s="74"/>
     </row>
-    <row r="11" spans="1:16" s="12" customFormat="1">
+    <row r="11" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="str">
         <f>IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),CONCATENATE(LEFT(#REF!,3),IF(MID(#REF!,4,2)+1&lt;10,CONCATENATE("0",MID(#REF!,4,2)+1))),"")</f>
         <v/>
@@ -2232,7 +2725,7 @@
       <c r="J11" s="19"/>
       <c r="K11" s="19"/>
     </row>
-    <row r="12" spans="1:16" s="12" customFormat="1">
+    <row r="12" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="str">
         <f t="shared" ref="A12:A17" si="3">IF(OR(B12&lt;&gt;"",J12&lt;&gt;""),CONCATENATE(LEFT(A11,3),IF(MID(A11,4,2)+1&lt;10,CONCATENATE("0",MID(A11,4,2)+1))),"")</f>
         <v/>
@@ -2263,7 +2756,7 @@
       <c r="J12" s="19"/>
       <c r="K12" s="19"/>
     </row>
-    <row r="13" spans="1:16" s="12" customFormat="1">
+    <row r="13" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -2294,7 +2787,7 @@
       <c r="J13" s="19"/>
       <c r="K13" s="19"/>
     </row>
-    <row r="14" spans="1:16" s="12" customFormat="1">
+    <row r="14" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -2325,7 +2818,7 @@
       <c r="J14" s="21"/>
       <c r="K14" s="21"/>
     </row>
-    <row r="15" spans="1:16" s="12" customFormat="1" ht="14.25">
+    <row r="15" spans="1:16" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A15" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -2356,7 +2849,7 @@
       <c r="J15" s="28"/>
       <c r="K15" s="30"/>
     </row>
-    <row r="16" spans="1:16" s="12" customFormat="1">
+    <row r="16" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -2387,7 +2880,7 @@
       <c r="J16" s="21"/>
       <c r="K16" s="21"/>
     </row>
-    <row r="17" spans="1:11" s="12" customFormat="1">
+    <row r="17" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -2418,7 +2911,7 @@
       <c r="J17" s="21"/>
       <c r="K17" s="21"/>
     </row>
-    <row r="18" spans="1:11" s="12" customFormat="1" ht="14.25">
+    <row r="18" spans="1:11" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A18" s="13"/>
       <c r="B18" s="13"/>
       <c r="C18" s="27"/>
@@ -2431,7 +2924,7 @@
       <c r="J18" s="28"/>
       <c r="K18" s="30"/>
     </row>
-    <row r="19" spans="1:11" s="12" customFormat="1">
+    <row r="19" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="13"/>
       <c r="B19" s="13"/>
       <c r="C19" s="27"/>
@@ -2444,7 +2937,7 @@
       <c r="J19" s="19"/>
       <c r="K19" s="21"/>
     </row>
-    <row r="20" spans="1:11" s="12" customFormat="1">
+    <row r="20" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="13"/>
       <c r="B20" s="13"/>
       <c r="C20" s="27"/>
@@ -2457,7 +2950,7 @@
       <c r="J20" s="21"/>
       <c r="K20" s="21"/>
     </row>
-    <row r="21" spans="1:11" s="12" customFormat="1">
+    <row r="21" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="str">
         <f t="shared" ref="A21:A82" si="4">IF(OR(B21&lt;&gt;"",J21&lt;&gt;""),CONCATENATE(LEFT(A20,3),IF(MID(A20,4,2)+1&lt;10,CONCATENATE("0",MID(A20,4,2)+1),MID(A20,4,2)+1)),"")</f>
         <v/>
@@ -2488,7 +2981,7 @@
       <c r="J21" s="14"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" s="12" customFormat="1">
+    <row r="22" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -2519,7 +3012,7 @@
       <c r="J22" s="19"/>
       <c r="K22" s="19"/>
     </row>
-    <row r="23" spans="1:11" s="12" customFormat="1">
+    <row r="23" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -2550,7 +3043,7 @@
       <c r="J23" s="14"/>
       <c r="K23" s="15"/>
     </row>
-    <row r="24" spans="1:11" s="12" customFormat="1">
+    <row r="24" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -2581,7 +3074,7 @@
       <c r="J24" s="14"/>
       <c r="K24" s="19"/>
     </row>
-    <row r="25" spans="1:11" s="12" customFormat="1">
+    <row r="25" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -2612,7 +3105,7 @@
       <c r="J25" s="14"/>
       <c r="K25" s="19"/>
     </row>
-    <row r="26" spans="1:11" s="12" customFormat="1">
+    <row r="26" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -2643,7 +3136,7 @@
       <c r="J26" s="19"/>
       <c r="K26" s="19"/>
     </row>
-    <row r="27" spans="1:11" s="12" customFormat="1">
+    <row r="27" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -2674,7 +3167,7 @@
       <c r="J27" s="19"/>
       <c r="K27" s="19"/>
     </row>
-    <row r="28" spans="1:11" s="12" customFormat="1">
+    <row r="28" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -2705,7 +3198,7 @@
       <c r="J28" s="19"/>
       <c r="K28" s="19"/>
     </row>
-    <row r="29" spans="1:11" s="12" customFormat="1">
+    <row r="29" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -2736,7 +3229,7 @@
       <c r="J29" s="19"/>
       <c r="K29" s="19"/>
     </row>
-    <row r="30" spans="1:11" s="12" customFormat="1">
+    <row r="30" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -2767,7 +3260,7 @@
       <c r="J30" s="19"/>
       <c r="K30" s="19"/>
     </row>
-    <row r="31" spans="1:11" s="12" customFormat="1">
+    <row r="31" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -2798,7 +3291,7 @@
       <c r="J31" s="19"/>
       <c r="K31" s="19"/>
     </row>
-    <row r="32" spans="1:11" s="12" customFormat="1">
+    <row r="32" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -2829,7 +3322,7 @@
       <c r="J32" s="19"/>
       <c r="K32" s="19"/>
     </row>
-    <row r="33" spans="1:11" s="12" customFormat="1">
+    <row r="33" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -2860,7 +3353,7 @@
       <c r="J33" s="19"/>
       <c r="K33" s="19"/>
     </row>
-    <row r="34" spans="1:11" s="12" customFormat="1">
+    <row r="34" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -2891,7 +3384,7 @@
       <c r="J34" s="14"/>
       <c r="K34" s="15"/>
     </row>
-    <row r="35" spans="1:11" s="12" customFormat="1">
+    <row r="35" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -2922,7 +3415,7 @@
       <c r="J35" s="14"/>
       <c r="K35" s="15"/>
     </row>
-    <row r="36" spans="1:11" s="12" customFormat="1">
+    <row r="36" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -2953,7 +3446,7 @@
       <c r="J36" s="22"/>
       <c r="K36" s="15"/>
     </row>
-    <row r="37" spans="1:11" s="12" customFormat="1">
+    <row r="37" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -2984,7 +3477,7 @@
       <c r="J37" s="23"/>
       <c r="K37" s="15"/>
     </row>
-    <row r="38" spans="1:11" s="12" customFormat="1">
+    <row r="38" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -3015,7 +3508,7 @@
       <c r="J38" s="14"/>
       <c r="K38" s="15"/>
     </row>
-    <row r="39" spans="1:11" s="12" customFormat="1">
+    <row r="39" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -3046,7 +3539,7 @@
       <c r="J39" s="14"/>
       <c r="K39" s="15"/>
     </row>
-    <row r="40" spans="1:11" s="12" customFormat="1">
+    <row r="40" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -3077,7 +3570,7 @@
       <c r="J40" s="14"/>
       <c r="K40" s="15"/>
     </row>
-    <row r="41" spans="1:11" s="12" customFormat="1">
+    <row r="41" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -3108,7 +3601,7 @@
       <c r="J41" s="14"/>
       <c r="K41" s="15"/>
     </row>
-    <row r="42" spans="1:11" s="12" customFormat="1">
+    <row r="42" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -3139,7 +3632,7 @@
       <c r="J42" s="14"/>
       <c r="K42" s="15"/>
     </row>
-    <row r="43" spans="1:11" s="12" customFormat="1">
+    <row r="43" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -3170,7 +3663,7 @@
       <c r="J43" s="14"/>
       <c r="K43" s="15"/>
     </row>
-    <row r="44" spans="1:11" s="12" customFormat="1">
+    <row r="44" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -3201,7 +3694,7 @@
       <c r="J44" s="14"/>
       <c r="K44" s="15"/>
     </row>
-    <row r="45" spans="1:11" s="12" customFormat="1">
+    <row r="45" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -3232,7 +3725,7 @@
       <c r="J45" s="14"/>
       <c r="K45" s="15"/>
     </row>
-    <row r="46" spans="1:11" s="12" customFormat="1">
+    <row r="46" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -3263,7 +3756,7 @@
       <c r="J46" s="14"/>
       <c r="K46" s="15"/>
     </row>
-    <row r="47" spans="1:11" s="12" customFormat="1">
+    <row r="47" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -3294,7 +3787,7 @@
       <c r="J47" s="14"/>
       <c r="K47" s="15"/>
     </row>
-    <row r="48" spans="1:11" s="12" customFormat="1">
+    <row r="48" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -3325,7 +3818,7 @@
       <c r="J48" s="14"/>
       <c r="K48" s="15"/>
     </row>
-    <row r="49" spans="1:11" s="12" customFormat="1">
+    <row r="49" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -3356,7 +3849,7 @@
       <c r="J49" s="14"/>
       <c r="K49" s="15"/>
     </row>
-    <row r="50" spans="1:11" s="12" customFormat="1">
+    <row r="50" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -3387,7 +3880,7 @@
       <c r="J50" s="14"/>
       <c r="K50" s="15"/>
     </row>
-    <row r="51" spans="1:11" s="12" customFormat="1">
+    <row r="51" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -3418,7 +3911,7 @@
       <c r="J51" s="14"/>
       <c r="K51" s="15"/>
     </row>
-    <row r="52" spans="1:11" s="12" customFormat="1">
+    <row r="52" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -3449,7 +3942,7 @@
       <c r="J52" s="14"/>
       <c r="K52" s="15"/>
     </row>
-    <row r="53" spans="1:11" s="12" customFormat="1">
+    <row r="53" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -3480,7 +3973,7 @@
       <c r="J53" s="14"/>
       <c r="K53" s="15"/>
     </row>
-    <row r="54" spans="1:11" s="12" customFormat="1">
+    <row r="54" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -3511,7 +4004,7 @@
       <c r="J54" s="14"/>
       <c r="K54" s="15"/>
     </row>
-    <row r="55" spans="1:11" s="12" customFormat="1">
+    <row r="55" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -3542,7 +4035,7 @@
       <c r="J55" s="14"/>
       <c r="K55" s="15"/>
     </row>
-    <row r="56" spans="1:11" s="12" customFormat="1">
+    <row r="56" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -3573,7 +4066,7 @@
       <c r="J56" s="14"/>
       <c r="K56" s="15"/>
     </row>
-    <row r="57" spans="1:11" s="12" customFormat="1">
+    <row r="57" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -3604,7 +4097,7 @@
       <c r="J57" s="14"/>
       <c r="K57" s="15"/>
     </row>
-    <row r="58" spans="1:11" s="12" customFormat="1">
+    <row r="58" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -3635,7 +4128,7 @@
       <c r="J58" s="14"/>
       <c r="K58" s="15"/>
     </row>
-    <row r="59" spans="1:11" s="12" customFormat="1">
+    <row r="59" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -3666,7 +4159,7 @@
       <c r="J59" s="14"/>
       <c r="K59" s="15"/>
     </row>
-    <row r="60" spans="1:11" s="12" customFormat="1">
+    <row r="60" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -3697,7 +4190,7 @@
       <c r="J60" s="14"/>
       <c r="K60" s="15"/>
     </row>
-    <row r="61" spans="1:11" s="12" customFormat="1">
+    <row r="61" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -3728,7 +4221,7 @@
       <c r="J61" s="14"/>
       <c r="K61" s="15"/>
     </row>
-    <row r="62" spans="1:11" s="12" customFormat="1">
+    <row r="62" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -3759,7 +4252,7 @@
       <c r="J62" s="14"/>
       <c r="K62" s="15"/>
     </row>
-    <row r="63" spans="1:11" s="12" customFormat="1">
+    <row r="63" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -3790,7 +4283,7 @@
       <c r="J63" s="14"/>
       <c r="K63" s="15"/>
     </row>
-    <row r="64" spans="1:11" s="12" customFormat="1">
+    <row r="64" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -3821,7 +4314,7 @@
       <c r="J64" s="14"/>
       <c r="K64" s="15"/>
     </row>
-    <row r="65" spans="1:11" s="12" customFormat="1">
+    <row r="65" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -3852,7 +4345,7 @@
       <c r="J65" s="14"/>
       <c r="K65" s="15"/>
     </row>
-    <row r="66" spans="1:11" s="12" customFormat="1">
+    <row r="66" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -3883,7 +4376,7 @@
       <c r="J66" s="14"/>
       <c r="K66" s="15"/>
     </row>
-    <row r="67" spans="1:11" s="12" customFormat="1">
+    <row r="67" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -3914,7 +4407,7 @@
       <c r="J67" s="14"/>
       <c r="K67" s="15"/>
     </row>
-    <row r="68" spans="1:11" s="12" customFormat="1">
+    <row r="68" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -3945,7 +4438,7 @@
       <c r="J68" s="14"/>
       <c r="K68" s="15"/>
     </row>
-    <row r="69" spans="1:11" s="12" customFormat="1">
+    <row r="69" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -3976,7 +4469,7 @@
       <c r="J69" s="14"/>
       <c r="K69" s="15"/>
     </row>
-    <row r="70" spans="1:11" s="12" customFormat="1">
+    <row r="70" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -4007,7 +4500,7 @@
       <c r="J70" s="14"/>
       <c r="K70" s="15"/>
     </row>
-    <row r="71" spans="1:11" s="12" customFormat="1">
+    <row r="71" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -4038,7 +4531,7 @@
       <c r="J71" s="14"/>
       <c r="K71" s="15"/>
     </row>
-    <row r="72" spans="1:11" s="12" customFormat="1">
+    <row r="72" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -4069,7 +4562,7 @@
       <c r="J72" s="14"/>
       <c r="K72" s="15"/>
     </row>
-    <row r="73" spans="1:11" s="12" customFormat="1">
+    <row r="73" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -4100,7 +4593,7 @@
       <c r="J73" s="14"/>
       <c r="K73" s="15"/>
     </row>
-    <row r="74" spans="1:11" s="12" customFormat="1">
+    <row r="74" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -4131,7 +4624,7 @@
       <c r="J74" s="14"/>
       <c r="K74" s="15"/>
     </row>
-    <row r="75" spans="1:11" s="12" customFormat="1">
+    <row r="75" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -4162,7 +4655,7 @@
       <c r="J75" s="14"/>
       <c r="K75" s="15"/>
     </row>
-    <row r="76" spans="1:11" s="12" customFormat="1">
+    <row r="76" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -4193,7 +4686,7 @@
       <c r="J76" s="14"/>
       <c r="K76" s="15"/>
     </row>
-    <row r="77" spans="1:11" s="12" customFormat="1">
+    <row r="77" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -4224,7 +4717,7 @@
       <c r="J77" s="14"/>
       <c r="K77" s="15"/>
     </row>
-    <row r="78" spans="1:11" s="12" customFormat="1">
+    <row r="78" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -4255,7 +4748,7 @@
       <c r="J78" s="14"/>
       <c r="K78" s="15"/>
     </row>
-    <row r="79" spans="1:11" s="12" customFormat="1">
+    <row r="79" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -4286,7 +4779,7 @@
       <c r="J79" s="14"/>
       <c r="K79" s="15"/>
     </row>
-    <row r="80" spans="1:11" s="12" customFormat="1">
+    <row r="80" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -4317,7 +4810,7 @@
       <c r="J80" s="14"/>
       <c r="K80" s="15"/>
     </row>
-    <row r="81" spans="1:11" s="12" customFormat="1">
+    <row r="81" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -4348,7 +4841,7 @@
       <c r="J81" s="14"/>
       <c r="K81" s="15"/>
     </row>
-    <row r="82" spans="1:11" s="12" customFormat="1">
+    <row r="82" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -4379,7 +4872,7 @@
       <c r="J82" s="14"/>
       <c r="K82" s="15"/>
     </row>
-    <row r="83" spans="1:11" s="12" customFormat="1">
+    <row r="83" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="13" t="str">
         <f t="shared" ref="A83:A107" si="8">IF(OR(B83&lt;&gt;"",J83&lt;&gt;""),CONCATENATE(LEFT(A82,3),IF(MID(A82,4,2)+1&lt;10,CONCATENATE("0",MID(A82,4,2)+1),MID(A82,4,2)+1)),"")</f>
         <v/>
@@ -4410,7 +4903,7 @@
       <c r="J83" s="14"/>
       <c r="K83" s="15"/>
     </row>
-    <row r="84" spans="1:11" s="12" customFormat="1">
+    <row r="84" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="13" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4441,7 +4934,7 @@
       <c r="J84" s="14"/>
       <c r="K84" s="15"/>
     </row>
-    <row r="85" spans="1:11" s="12" customFormat="1">
+    <row r="85" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="13" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4472,7 +4965,7 @@
       <c r="J85" s="14"/>
       <c r="K85" s="15"/>
     </row>
-    <row r="86" spans="1:11" s="12" customFormat="1">
+    <row r="86" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="13" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4503,7 +4996,7 @@
       <c r="J86" s="14"/>
       <c r="K86" s="15"/>
     </row>
-    <row r="87" spans="1:11" s="12" customFormat="1">
+    <row r="87" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="13" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4534,7 +5027,7 @@
       <c r="J87" s="14"/>
       <c r="K87" s="15"/>
     </row>
-    <row r="88" spans="1:11" s="12" customFormat="1">
+    <row r="88" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="13" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4565,7 +5058,7 @@
       <c r="J88" s="14"/>
       <c r="K88" s="15"/>
     </row>
-    <row r="89" spans="1:11" s="12" customFormat="1">
+    <row r="89" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="13" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4596,7 +5089,7 @@
       <c r="J89" s="14"/>
       <c r="K89" s="15"/>
     </row>
-    <row r="90" spans="1:11" s="12" customFormat="1">
+    <row r="90" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="13" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4627,7 +5120,7 @@
       <c r="J90" s="14"/>
       <c r="K90" s="15"/>
     </row>
-    <row r="91" spans="1:11" s="12" customFormat="1">
+    <row r="91" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="13" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4658,7 +5151,7 @@
       <c r="J91" s="14"/>
       <c r="K91" s="15"/>
     </row>
-    <row r="92" spans="1:11" s="12" customFormat="1">
+    <row r="92" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="13" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4689,7 +5182,7 @@
       <c r="J92" s="14"/>
       <c r="K92" s="15"/>
     </row>
-    <row r="93" spans="1:11" s="12" customFormat="1">
+    <row r="93" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="13" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4720,7 +5213,7 @@
       <c r="J93" s="14"/>
       <c r="K93" s="15"/>
     </row>
-    <row r="94" spans="1:11" s="12" customFormat="1">
+    <row r="94" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="13" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4751,7 +5244,7 @@
       <c r="J94" s="14"/>
       <c r="K94" s="15"/>
     </row>
-    <row r="95" spans="1:11" s="12" customFormat="1">
+    <row r="95" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="13" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4782,7 +5275,7 @@
       <c r="J95" s="14"/>
       <c r="K95" s="15"/>
     </row>
-    <row r="96" spans="1:11" s="12" customFormat="1">
+    <row r="96" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="13" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4813,7 +5306,7 @@
       <c r="J96" s="14"/>
       <c r="K96" s="15"/>
     </row>
-    <row r="97" spans="1:11" s="12" customFormat="1">
+    <row r="97" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="13" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4844,7 +5337,7 @@
       <c r="J97" s="14"/>
       <c r="K97" s="15"/>
     </row>
-    <row r="98" spans="1:11" s="12" customFormat="1">
+    <row r="98" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="13" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4875,7 +5368,7 @@
       <c r="J98" s="14"/>
       <c r="K98" s="15"/>
     </row>
-    <row r="99" spans="1:11" s="12" customFormat="1">
+    <row r="99" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="13" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4906,7 +5399,7 @@
       <c r="J99" s="14"/>
       <c r="K99" s="15"/>
     </row>
-    <row r="100" spans="1:11" s="12" customFormat="1">
+    <row r="100" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="13" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4937,7 +5430,7 @@
       <c r="J100" s="14"/>
       <c r="K100" s="15"/>
     </row>
-    <row r="101" spans="1:11" s="12" customFormat="1">
+    <row r="101" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="13" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4968,7 +5461,7 @@
       <c r="J101" s="14"/>
       <c r="K101" s="15"/>
     </row>
-    <row r="102" spans="1:11" s="12" customFormat="1">
+    <row r="102" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="13" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -4999,7 +5492,7 @@
       <c r="J102" s="14"/>
       <c r="K102" s="15"/>
     </row>
-    <row r="103" spans="1:11" s="12" customFormat="1">
+    <row r="103" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="13" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5030,7 +5523,7 @@
       <c r="J103" s="14"/>
       <c r="K103" s="15"/>
     </row>
-    <row r="104" spans="1:11" s="12" customFormat="1">
+    <row r="104" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="13" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5061,7 +5554,7 @@
       <c r="J104" s="14"/>
       <c r="K104" s="15"/>
     </row>
-    <row r="105" spans="1:11" s="12" customFormat="1">
+    <row r="105" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="13" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5092,7 +5585,7 @@
       <c r="J105" s="14"/>
       <c r="K105" s="15"/>
     </row>
-    <row r="106" spans="1:11" s="12" customFormat="1">
+    <row r="106" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="13" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5123,7 +5616,7 @@
       <c r="J106" s="14"/>
       <c r="K106" s="15"/>
     </row>
-    <row r="107" spans="1:11" s="12" customFormat="1">
+    <row r="107" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="13" t="str">
         <f t="shared" si="8"/>
         <v/>
@@ -5203,9 +5696,34 @@
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
   <oleObjects>
-    <oleObject progId="Word.Document.12" dvAspect="DVASPECT_ICON" shapeId="2051" r:id="rId3"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Word.Document.8" shapeId="2054" r:id="rId4">
+          <objectPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>2600325</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>323850</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>13</xdr:col>
+                <xdr:colOff>790575</xdr:colOff>
+                <xdr:row>21</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Word.Document.8" shapeId="2054" r:id="rId4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
   </oleObjects>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -5216,7 +5734,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja2"/>
   <dimension ref="A1:K45"/>
   <sheetViews>
@@ -5224,7 +5742,7 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="72.25" style="31" customWidth="1"/>
     <col min="2" max="2" width="11" style="31"/>
@@ -5235,7 +5753,7 @@
     <col min="12" max="16384" width="11" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16.5" thickBot="1">
+    <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="91" t="s">
         <v>38</v>
       </c>
@@ -5245,7 +5763,7 @@
       <c r="E1" s="92"/>
       <c r="F1" s="93"/>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="39" t="s">
         <v>42</v>
       </c>
@@ -5257,7 +5775,7 @@
       <c r="E2" s="96"/>
       <c r="F2" s="41"/>
     </row>
-    <row r="3" spans="1:11" ht="63">
+    <row r="3" spans="1:11" ht="63" x14ac:dyDescent="0.25">
       <c r="A3" s="42" t="s">
         <v>43</v>
       </c>
@@ -5281,7 +5799,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="31.5">
+    <row r="4" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A4" s="39" t="s">
         <v>44</v>
       </c>
@@ -5309,7 +5827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="79.5" thickBot="1">
+    <row r="5" spans="1:11" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="42" t="s">
         <v>45</v>
       </c>
@@ -5336,7 +5854,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="32.25" thickBot="1">
+    <row r="6" spans="1:11" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="39" t="s">
         <v>10</v>
       </c>
@@ -5358,7 +5876,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="48" thickBot="1">
+    <row r="7" spans="1:11" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="42" t="s">
         <v>11</v>
       </c>
@@ -5385,7 +5903,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="47.25">
+    <row r="8" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A8" s="42" t="s">
         <v>53</v>
       </c>
@@ -5404,7 +5922,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="47.25">
+    <row r="9" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A9" s="42" t="s">
         <v>12</v>
       </c>
@@ -5423,7 +5941,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="32.25" thickBot="1">
+    <row r="10" spans="1:11" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="43" t="s">
         <v>36</v>
       </c>
@@ -5442,7 +5960,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="I11" s="31" t="s">
         <v>32</v>
       </c>
@@ -5453,7 +5971,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="16.5" thickBot="1">
+    <row r="12" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I12" s="31" t="s">
         <v>37</v>
       </c>
@@ -5464,7 +5982,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="91" t="s">
         <v>41</v>
       </c>
@@ -5483,7 +6001,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="16.5" thickBot="1">
+    <row r="14" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="42"/>
       <c r="B14" s="40"/>
       <c r="C14" s="40"/>
@@ -5500,7 +6018,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="39" t="s">
         <v>46</v>
       </c>
@@ -5518,7 +6036,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="67.150000000000006" customHeight="1">
+    <row r="16" spans="1:11" ht="67.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="42" t="s">
         <v>47</v>
       </c>
@@ -5542,7 +6060,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="32.1" customHeight="1" thickBot="1">
+    <row r="17" spans="1:11" ht="32.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="39" t="s">
         <v>44</v>
       </c>
@@ -5563,7 +6081,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="79.5" thickBot="1">
+    <row r="18" spans="1:11" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="42" t="s">
         <v>48</v>
       </c>
@@ -5584,7 +6102,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="39" t="s">
         <v>10</v>
       </c>
@@ -5603,7 +6121,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="63.75" thickBot="1">
+    <row r="20" spans="1:11" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="43" t="s">
         <v>51</v>
       </c>
@@ -5625,7 +6143,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H21" s="31" t="str">
         <f>IF(INDEX(H4:H7,H20)=H4,"MA",IF(INDEX(H4:H7,H20)=H5,"CN",IF(INDEX(H4:H7,H20)=H6,"CS",IF(INDEX(H4:H7,H20)=H7,"LE"))))</f>
         <v>LE</v>
@@ -5642,122 +6160,122 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K22" s="31">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K23" s="31">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K24" s="31">
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K25" s="31">
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K26" s="31">
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K27" s="31">
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K28" s="31">
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K29" s="31">
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K30" s="31">
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K31" s="31">
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K32" s="31">
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="11:11">
+    <row r="33" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K33" s="31">
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="11:11">
+    <row r="34" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K34" s="31">
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="11:11">
+    <row r="35" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K35" s="31">
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="11:11">
+    <row r="36" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K36" s="31">
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="11:11">
+    <row r="37" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K37" s="31">
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="11:11">
+    <row r="38" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K38" s="31">
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="11:11">
+    <row r="39" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K39" s="31">
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="11:11">
+    <row r="40" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K40" s="31">
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="11:11">
+    <row r="41" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K41" s="31">
         <v>38</v>
       </c>
     </row>
-    <row r="42" spans="11:11">
+    <row r="42" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K42" s="31">
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="11:11">
+    <row r="43" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K43" s="31">
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="11:11">
+    <row r="44" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K44" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="11:11">
+    <row r="45" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K45" s="31" t="str">
         <f>CONCATENATE("REC",K44,0)</f>
         <v>REC10</v>
@@ -5777,12 +6295,173 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x14">
+      <controls>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1030" r:id="rId4" name="Drop Down 6">
+              <controlPr defaultSize="0" autoLine="0" autoPict="0" macro="[0]!Listadesplegable2_Cambiar">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>15</xdr:row>
+                    <xdr:rowOff>962025</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>2028825</xdr:colOff>
+                    <xdr:row>15</xdr:row>
+                    <xdr:rowOff>1419225</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1031" r:id="rId5" name="Drop Down 7">
+              <controlPr defaultSize="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>2019300</xdr:colOff>
+                    <xdr:row>15</xdr:row>
+                    <xdr:rowOff>962025</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>1657350</xdr:colOff>
+                    <xdr:row>15</xdr:row>
+                    <xdr:rowOff>1419225</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1032" r:id="rId6" name="Drop Down 8">
+              <controlPr defaultSize="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:row>15</xdr:row>
+                    <xdr:rowOff>962025</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>1666875</xdr:colOff>
+                    <xdr:row>15</xdr:row>
+                    <xdr:rowOff>1419225</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1035" r:id="rId7" name="Drop Down 11">
+              <controlPr defaultSize="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:row>15</xdr:row>
+                    <xdr:rowOff>962025</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>1666875</xdr:colOff>
+                    <xdr:row>15</xdr:row>
+                    <xdr:rowOff>1419225</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1026" r:id="rId8" name="Drop Down 2">
+              <controlPr defaultSize="0" autoLine="0" autoPict="0" macro="[0]!Listadesplegable2_Cambiar">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>38100</xdr:colOff>
+                    <xdr:row>4</xdr:row>
+                    <xdr:rowOff>9525</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>2066925</xdr:colOff>
+                    <xdr:row>4</xdr:row>
+                    <xdr:rowOff>466725</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1028" r:id="rId9" name="Drop Down 4">
+              <controlPr defaultSize="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>2085975</xdr:colOff>
+                    <xdr:row>4</xdr:row>
+                    <xdr:rowOff>9525</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>1724025</xdr:colOff>
+                    <xdr:row>4</xdr:row>
+                    <xdr:rowOff>466725</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1029" r:id="rId10" name="Drop Down 5">
+              <controlPr defaultSize="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>28575</xdr:colOff>
+                    <xdr:row>4</xdr:row>
+                    <xdr:rowOff>9525</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:row>4</xdr:row>
+                    <xdr:rowOff>466725</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+      </controls>
+    </mc:Choice>
+  </mc:AlternateContent>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
@@ -5790,7 +6469,7 @@
       <selection pane="bottomLeft" activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21" style="31" customWidth="1"/>
     <col min="2" max="2" width="22.25" style="31" customWidth="1"/>
@@ -5806,7 +6485,7 @@
     <col min="12" max="16384" width="10.875" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="105" t="s">
         <v>56</v>
       </c>
@@ -5834,7 +6513,7 @@
       <c r="I1" s="106"/>
       <c r="J1" s="106"/>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="105"/>
       <c r="B2" s="105"/>
       <c r="C2" s="105"/>
@@ -5852,7 +6531,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="52" customFormat="1">
+    <row r="3" spans="1:11" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="51" t="s">
         <v>69</v>
       </c>
@@ -5876,7 +6555,7 @@
       <c r="I3" s="51"/>
       <c r="J3" s="51"/>
     </row>
-    <row r="4" spans="1:11" s="52" customFormat="1">
+    <row r="4" spans="1:11" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="53" t="s">
         <v>57</v>
       </c>
@@ -5904,7 +6583,7 @@
       </c>
       <c r="J4" s="53"/>
     </row>
-    <row r="5" spans="1:11" s="52" customFormat="1">
+    <row r="5" spans="1:11" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="54" t="s">
         <v>77</v>
       </c>
@@ -5932,7 +6611,7 @@
       </c>
       <c r="J5" s="55"/>
     </row>
-    <row r="6" spans="1:11" s="52" customFormat="1">
+    <row r="6" spans="1:11" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="53" t="s">
         <v>58</v>
       </c>
@@ -5964,7 +6643,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="52" customFormat="1" ht="25.5">
+    <row r="7" spans="1:11" s="52" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A7" s="53" t="s">
         <v>80</v>
       </c>
@@ -5992,7 +6671,7 @@
       </c>
       <c r="J7" s="53"/>
     </row>
-    <row r="8" spans="1:11" s="52" customFormat="1" ht="25.5">
+    <row r="8" spans="1:11" s="52" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A8" s="53" t="s">
         <v>82</v>
       </c>
@@ -6020,7 +6699,7 @@
       </c>
       <c r="J8" s="53"/>
     </row>
-    <row r="9" spans="1:11" s="52" customFormat="1">
+    <row r="9" spans="1:11" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="53" t="s">
         <v>84</v>
       </c>
@@ -6048,7 +6727,7 @@
       </c>
       <c r="J9" s="53"/>
     </row>
-    <row r="10" spans="1:11" s="52" customFormat="1">
+    <row r="10" spans="1:11" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="53" t="s">
         <v>86</v>
       </c>
@@ -6074,7 +6753,7 @@
       </c>
       <c r="J10" s="53"/>
     </row>
-    <row r="11" spans="1:11" s="52" customFormat="1" ht="25.5">
+    <row r="11" spans="1:11" s="52" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A11" s="53" t="s">
         <v>89</v>
       </c>
@@ -6102,7 +6781,7 @@
       </c>
       <c r="J11" s="53"/>
     </row>
-    <row r="12" spans="1:11" s="52" customFormat="1">
+    <row r="12" spans="1:11" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="53" t="s">
         <v>91</v>
       </c>
@@ -6130,7 +6809,7 @@
       </c>
       <c r="J12" s="53"/>
     </row>
-    <row r="13" spans="1:11" ht="63">
+    <row r="13" spans="1:11" ht="63" x14ac:dyDescent="0.25">
       <c r="A13" s="56" t="s">
         <v>93</v>
       </c>
@@ -6157,7 +6836,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="56" t="s">
         <v>97</v>
       </c>
@@ -6181,7 +6860,7 @@
       </c>
       <c r="J14" s="56"/>
     </row>
-    <row r="15" spans="1:11" ht="31.5">
+    <row r="15" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A15" s="56" t="s">
         <v>99</v>
       </c>
@@ -6208,7 +6887,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="94.5">
+    <row r="16" spans="1:11" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A16" s="58" t="s">
         <v>103</v>
       </c>
@@ -6237,7 +6916,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="25.5">
+    <row r="17" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A17" s="53" t="s">
         <v>106</v>
       </c>
@@ -6266,12 +6945,12 @@
         <v>111</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="62" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="63" t="s">
         <v>113</v>
       </c>
@@ -6284,7 +6963,7 @@
       <c r="D21" s="64"/>
       <c r="E21" s="64"/>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="66" t="s">
         <v>114</v>
       </c>
@@ -6297,7 +6976,7 @@
       <c r="D22" s="67"/>
       <c r="E22" s="67"/>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="66" t="s">
         <v>115</v>
       </c>
@@ -6310,7 +6989,7 @@
       <c r="D23" s="67"/>
       <c r="E23" s="67"/>
     </row>
-    <row r="24" spans="1:11" ht="31.5">
+    <row r="24" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A24" s="66" t="s">
         <v>116</v>
       </c>
@@ -6323,7 +7002,7 @@
       <c r="D24" s="67"/>
       <c r="E24" s="67"/>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="66" t="s">
         <v>117</v>
       </c>
@@ -6336,7 +7015,7 @@
       <c r="D25" s="67"/>
       <c r="E25" s="67"/>
     </row>
-    <row r="26" spans="1:11" ht="63">
+    <row r="26" spans="1:11" ht="63" x14ac:dyDescent="0.25">
       <c r="A26" s="66" t="s">
         <v>118</v>
       </c>
